--- a/Procesos/05266600020420070114602.xlsx
+++ b/Procesos/05266600020420070114602.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9228" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formato" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Formato" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -254,68 +254,68 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" shrinkToFit="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -592,18 +592,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11.4" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="0" defaultRowHeight="11.4"/>
   <cols>
-    <col width="1.375" customWidth="1" style="14" min="1" max="2"/>
-    <col width="3.125" customWidth="1" style="13" min="3" max="8"/>
-    <col width="3.625" customWidth="1" style="13" min="9" max="9"/>
-    <col width="3.125" customWidth="1" style="13" min="10" max="48"/>
-    <col width="1.375" customWidth="1" style="14" min="49" max="50"/>
-    <col hidden="1" width="11" customWidth="1" style="8" min="51" max="73"/>
-    <col hidden="1" width="11" customWidth="1" style="8" min="74" max="16384"/>
+    <col customWidth="1" max="2" min="1" style="14" width="1.375"/>
+    <col customWidth="1" max="8" min="3" style="13" width="3.125"/>
+    <col customWidth="1" max="9" min="9" style="13" width="3.625"/>
+    <col customWidth="1" max="48" min="10" style="13" width="3.125"/>
+    <col customWidth="1" max="50" min="49" style="14" width="1.375"/>
+    <col customWidth="1" hidden="1" max="73" min="51" style="8" width="11"/>
+    <col customWidth="1" hidden="1" max="16384" min="74" style="8" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" s="8">
+    <row customHeight="1" ht="17.4" r="1" s="8">
       <c r="A1" s="2" t="n"/>
       <c r="C1" s="17" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       <c r="AV1" s="19" t="n"/>
       <c r="AW1" s="2" t="n"/>
     </row>
-    <row r="2" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="2" s="8">
       <c r="A2" s="2" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="AW2" s="2" t="n"/>
     </row>
-    <row r="3" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="3" s="8">
       <c r="A3" s="2" t="n"/>
       <c r="C3" s="20" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
       <c r="AV3" s="19" t="n"/>
       <c r="AW3" s="2" t="n"/>
     </row>
-    <row r="4" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="4" s="8">
       <c r="A4" s="2" t="n"/>
       <c r="C4" s="21" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
       <c r="AV4" s="29" t="n"/>
       <c r="AW4" s="2" t="n"/>
     </row>
-    <row r="5" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="5" s="8">
       <c r="A5" s="2" t="n"/>
       <c r="C5" s="30" t="n"/>
       <c r="D5" s="31" t="n"/>
@@ -832,11 +832,11 @@
       <c r="AV5" s="32" t="n"/>
       <c r="AW5" s="2" t="n"/>
     </row>
-    <row r="6" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="6" s="8">
       <c r="A6" s="2" t="n"/>
       <c r="AW6" s="2" t="n"/>
     </row>
-    <row r="7" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="7" s="8">
       <c r="A7" s="2" t="n"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
       </c>
       <c r="AW7" s="2" t="n"/>
     </row>
-    <row r="8" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="8" s="8">
       <c r="A8" s="2" t="n"/>
       <c r="C8" s="20" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
       <c r="AV8" s="19" t="n"/>
       <c r="AW8" s="2" t="n"/>
     </row>
-    <row r="9" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="9" s="8">
       <c r="A9" s="2" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
       <c r="AV9" s="29" t="n"/>
       <c r="AW9" s="2" t="n"/>
     </row>
-    <row r="10" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="10" s="8">
       <c r="A10" s="2" t="n"/>
       <c r="C10" s="30" t="n"/>
       <c r="D10" s="31" t="n"/>
@@ -1027,11 +1027,11 @@
       <c r="AV10" s="32" t="n"/>
       <c r="AW10" s="2" t="n"/>
     </row>
-    <row r="11" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="11" s="8">
       <c r="A11" s="2" t="n"/>
       <c r="AW11" s="2" t="n"/>
     </row>
-    <row r="12" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="12" s="8">
       <c r="A12" s="2" t="n"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="AW12" s="2" t="n"/>
     </row>
-    <row r="13" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="13" s="8">
       <c r="A13" s="2" t="n"/>
       <c r="C13" s="20" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
       <c r="AV13" s="19" t="n"/>
       <c r="AW13" s="2" t="n"/>
     </row>
-    <row r="14" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="14" s="8">
       <c r="A14" s="2" t="n"/>
       <c r="C14" s="21" t="inlineStr"/>
       <c r="D14" s="28" t="n"/>
@@ -1152,7 +1152,7 @@
       <c r="AV14" s="29" t="n"/>
       <c r="AW14" s="2" t="n"/>
     </row>
-    <row r="15" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="15" s="8">
       <c r="A15" s="2" t="n"/>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="31" t="n"/>
@@ -1202,11 +1202,11 @@
       <c r="AV15" s="32" t="n"/>
       <c r="AW15" s="2" t="n"/>
     </row>
-    <row r="16" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="16" s="8">
       <c r="A16" s="2" t="n"/>
       <c r="AW16" s="2" t="n"/>
     </row>
-    <row r="17" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="17" s="8">
       <c r="A17" s="2" t="n"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AW17" s="2" t="n"/>
     </row>
-    <row r="18" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="18" s="8">
       <c r="A18" s="2" t="n"/>
       <c r="C18" s="27" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       <c r="AV18" s="29" t="n"/>
       <c r="AW18" s="2" t="n"/>
     </row>
-    <row r="19" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="19" s="8">
       <c r="A19" s="2" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       <c r="AV19" s="29" t="n"/>
       <c r="AW19" s="2" t="n"/>
     </row>
-    <row r="20" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="20" s="8">
       <c r="A20" s="2" t="n"/>
       <c r="C20" s="30" t="n"/>
       <c r="D20" s="31" t="n"/>
@@ -1373,7 +1373,7 @@
       <c r="AV20" s="32" t="n"/>
       <c r="AW20" s="2" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="8" thickBot="1">
+    <row customHeight="1" ht="12" r="21" s="8" thickBot="1">
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="n"/>
@@ -1423,15 +1423,15 @@
       <c r="AV21" s="3" t="n"/>
       <c r="AW21" s="5" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="8" thickTop="1"/>
-    <row r="24" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="12" r="22" s="8" thickTop="1"/>
+    <row customHeight="1" ht="11.4" r="24" s="8">
       <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Documentos Asociados</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="25" s="8">
       <c r="C25" s="20" t="inlineStr">
         <is>
           <t>Nombre del Documento</t>
@@ -1487,7 +1487,7 @@
       <c r="AU25" s="18" t="n"/>
       <c r="AV25" s="19" t="n"/>
     </row>
-    <row r="26" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="26" s="8">
       <c r="C26" s="33" t="inlineStr">
         <is>
           <t>No hay Documentos Asociados</t>
@@ -1539,7 +1539,7 @@
       <c r="AU26" s="18" t="n"/>
       <c r="AV26" s="19" t="n"/>
     </row>
-    <row r="29" ht="18" customHeight="1" s="8">
+    <row customHeight="1" ht="18" r="29" s="8">
       <c r="C29" s="16" t="inlineStr">
         <is>
           <t>Actuaciones del Proceso</t>
@@ -1591,7 +1591,7 @@
       <c r="AU29" s="18" t="n"/>
       <c r="AV29" s="19" t="n"/>
     </row>
-    <row r="30" ht="27" customHeight="1" s="8">
+    <row customHeight="1" ht="27" r="30" s="8">
       <c r="C30" s="15" t="inlineStr">
         <is>
           <t>Fecha de Actuacion</t>
@@ -1663,7 +1663,7 @@
       <c r="AU30" s="31" t="n"/>
       <c r="AV30" s="32" t="n"/>
     </row>
-    <row r="31" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="31" s="8">
       <c r="C31" s="9" t="inlineStr">
         <is>
           <t>30 Apr 2013</t>
@@ -1727,7 +1727,7 @@
       <c r="AU31" s="18" t="n"/>
       <c r="AV31" s="19" t="n"/>
     </row>
-    <row r="32" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="32" s="8">
       <c r="C32" s="9" t="inlineStr">
         <is>
           <t>26 Apr 2013</t>
@@ -1799,7 +1799,7 @@
       <c r="AU32" s="18" t="n"/>
       <c r="AV32" s="19" t="n"/>
     </row>
-    <row r="33" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="33" s="8">
       <c r="C33" s="9" t="inlineStr">
         <is>
           <t>26 Apr 2013</t>
@@ -1863,7 +1863,7 @@
       <c r="AU33" s="18" t="n"/>
       <c r="AV33" s="19" t="n"/>
     </row>
-    <row r="34" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="34" s="8">
       <c r="C34" s="9" t="inlineStr">
         <is>
           <t>18 Apr 2013</t>
@@ -1923,7 +1923,7 @@
       <c r="AU34" s="18" t="n"/>
       <c r="AV34" s="19" t="n"/>
     </row>
-    <row r="35" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="35" s="8">
       <c r="C35" s="9" t="inlineStr">
         <is>
           <t>03 Apr 2013</t>
@@ -1987,7 +1987,7 @@
       <c r="AU35" s="18" t="n"/>
       <c r="AV35" s="19" t="n"/>
     </row>
-    <row r="36" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="36" s="8">
       <c r="C36" s="9" t="inlineStr">
         <is>
           <t>21 Jan 2013</t>
@@ -2059,7 +2059,7 @@
       <c r="AU36" s="18" t="n"/>
       <c r="AV36" s="19" t="n"/>
     </row>
-    <row r="37" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="37" s="8">
       <c r="C37" s="9" t="inlineStr">
         <is>
           <t>21 Jan 2013</t>
@@ -2205,7 +2205,7 @@
     <mergeCell ref="AO37:AR37"/>
     <mergeCell ref="AS37:AV37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>